--- a/OOD/OOD-3.xlsx
+++ b/OOD/OOD-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJEP\OOD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67878626-BCCD-4665-90EC-60D80A1E7898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8596B0-FDAA-4873-8D83-92D1A1EC8560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>scénář píšu k jednomu případu použití</t>
   </si>
@@ -238,276 +238,13 @@
   </si>
   <si>
     <t>Uživatel (akademik, manažer projektu, admin).</t>
-  </si>
-  <si>
-    <t>Projekty</t>
-  </si>
-  <si>
-    <t>UC3 – Přidání projektu</t>
-  </si>
-  <si>
-    <t>(Manažer, Admin)</t>
-  </si>
-  <si>
-    <t>Vytvoření nového projektu s definicí názvu, období, a zakázek.</t>
-  </si>
-  <si>
-    <t>UC4 – Úprava projektu</t>
-  </si>
-  <si>
-    <t>Editace detailu existujícího projektu.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>include:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> „Zobrazení detailu projektu“</t>
-    </r>
-  </si>
-  <si>
-    <t>UC5 – Smazání projektu</t>
-  </si>
-  <si>
-    <t>(Admin, Manažer)</t>
-  </si>
-  <si>
-    <t>Odstranění projektu a všech zakázek pod ním.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>extend:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> „Zobrazení detailu projektu“ (volitelně z detailu)</t>
-    </r>
-  </si>
-  <si>
-    <t>Zakázky</t>
-  </si>
-  <si>
-    <t>UC6 – Zobrazení detailu zakázky</t>
-  </si>
-  <si>
-    <t>(Manažer, Akademik, Admin)</t>
-  </si>
-  <si>
-    <t>Detail zakázky: účastníci, úvazky, aktivity.</t>
-  </si>
-  <si>
-    <t>UC7 – Úprava zakázky</t>
-  </si>
-  <si>
-    <t>UC8 – Přidání účastníka na zakázku</t>
-  </si>
-  <si>
-    <t>UC9 – Odebrání účastníka ze zakázky</t>
-  </si>
-  <si>
-    <t>Výkazy</t>
-  </si>
-  <si>
-    <t>UC10 – Zobrazení výkazu pracovní doby</t>
-  </si>
-  <si>
-    <t>UC11 – Zobrazení výkazu projektové činnosti</t>
-  </si>
-  <si>
-    <t>UC12 – Kontrola výkazu</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>include:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> „Zobrazení výkazu pracovní doby“</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>include:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> „Zobrazení výkazu projektové činnosti“</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>extend:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> „Automatická oprava výkazu“</t>
-    </r>
-  </si>
-  <si>
-    <t>UC13 – Automatická oprava výkazu</t>
-  </si>
-  <si>
-    <t>UC14 – Export výkazu</t>
-  </si>
-  <si>
-    <t>UC15 – Validace proti STAG</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>extend:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> „Kontrola výkazu“</t>
-    </r>
-  </si>
-  <si>
-    <t>Uživatelé / Role</t>
-  </si>
-  <si>
-    <t>UC16 – Správa uživatelů a oprávnění</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">→ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>include:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> „Přihlášení do aplikace“</t>
-    </r>
-  </si>
-  <si>
-    <t>UC17 – Odhlášení z aplikace</t>
-  </si>
-  <si>
-    <t>Další use casy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,14 +309,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -700,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,13 +449,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,10 +473,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1046,7 +772,7 @@
   <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +905,7 @@
       <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1197,7 +923,7 @@
       <c r="C17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1206,7 +932,7 @@
       <c r="C18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1531,242 +1257,170 @@
       </c>
     </row>
     <row r="59" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="B59" s="18"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
     <row r="61" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="21"/>
+      <c r="B62" s="20"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="22" t="s">
-        <v>72</v>
-      </c>
+      <c r="B63" s="21"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="B64" s="20"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="21" t="s">
-        <v>74</v>
-      </c>
+      <c r="B65" s="20"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="21"/>
+      <c r="B66" s="20"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="B67" s="21"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="B68" s="20"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="21" t="s">
-        <v>76</v>
-      </c>
+      <c r="B69" s="20"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="21" t="s">
-        <v>77</v>
-      </c>
+      <c r="B70" s="20"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="21"/>
+      <c r="B71" s="20"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="B72" s="21"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="21" t="s">
-        <v>79</v>
-      </c>
+      <c r="B73" s="20"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="B74" s="20"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="21" t="s">
-        <v>81</v>
-      </c>
+      <c r="B75" s="20"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76"/>
     </row>
     <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
-      <c r="B77" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="B77" s="19"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="21"/>
+      <c r="B78" s="20"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="B79" s="21"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="21" t="s">
-        <v>84</v>
-      </c>
+      <c r="B80" s="20"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="21" t="s">
-        <v>85</v>
-      </c>
+      <c r="B81" s="20"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="21" t="s">
-        <v>77</v>
-      </c>
+      <c r="B82" s="20"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="21"/>
+      <c r="B83" s="20"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="22" t="s">
-        <v>86</v>
-      </c>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="21"/>
+      <c r="B85" s="20"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="22" t="s">
-        <v>87</v>
-      </c>
+      <c r="B86" s="21"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="21"/>
+      <c r="B87" s="20"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="22" t="s">
-        <v>88</v>
-      </c>
+      <c r="B88" s="21"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89"/>
     </row>
     <row r="90" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="B90" s="19"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="21"/>
+      <c r="B91" s="20"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="22" t="s">
-        <v>90</v>
-      </c>
+      <c r="B92" s="21"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="21"/>
+      <c r="B93" s="20"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="22" t="s">
-        <v>91</v>
-      </c>
+      <c r="B94" s="21"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="21"/>
+      <c r="B95" s="20"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="22" t="s">
-        <v>92</v>
-      </c>
+      <c r="B96" s="21"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="B97" s="20"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="21" t="s">
-        <v>94</v>
-      </c>
+      <c r="B98" s="20"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="21" t="s">
-        <v>95</v>
-      </c>
+      <c r="B99" s="20"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="21"/>
+      <c r="B100" s="20"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="22" t="s">
-        <v>96</v>
-      </c>
+      <c r="B101" s="21"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="21"/>
+      <c r="B102" s="20"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="22" t="s">
-        <v>97</v>
-      </c>
+      <c r="B103" s="21"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="21"/>
+      <c r="B104" s="20"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="22" t="s">
-        <v>98</v>
-      </c>
+      <c r="B105" s="21"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="21" t="s">
-        <v>99</v>
-      </c>
+      <c r="B106" s="20"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107"/>
     </row>
     <row r="108" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="B108" s="19"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="21"/>
+      <c r="B109" s="20"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="22" t="s">
-        <v>101</v>
-      </c>
+      <c r="B110" s="21"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="21" t="s">
-        <v>102</v>
-      </c>
+      <c r="B111" s="20"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="21"/>
+      <c r="B112" s="20"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="22" t="s">
-        <v>103</v>
-      </c>
+      <c r="B113" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
